--- a/Symphony_Nurse2/テスト/テスト結果表.xlsx
+++ b/Symphony_Nurse2/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="9" r:id="rId1"/>
@@ -4804,80 +4804,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -4888,71 +4834,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4972,29 +4873,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -5005,11 +4885,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -5320,7 +5320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
@@ -5337,7 +5337,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5368,23 +5368,23 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="68" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="31">
         <v>43257</v>
       </c>
       <c r="H2" s="1"/>
@@ -5399,17 +5399,17 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="31">
         <v>43257</v>
       </c>
       <c r="H3" s="1"/>
@@ -5424,17 +5424,17 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="31">
         <v>43257</v>
       </c>
       <c r="H4" s="1"/>
@@ -5449,21 +5449,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="33" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="31">
         <v>43257</v>
       </c>
       <c r="H5" s="1"/>
@@ -5478,23 +5478,23 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="31">
         <v>43257</v>
       </c>
       <c r="H6" s="1"/>
@@ -5508,19 +5508,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="34" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="31">
         <v>43257</v>
       </c>
       <c r="H7" s="1"/>
@@ -5534,21 +5534,21 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="31">
         <v>43257</v>
       </c>
       <c r="H8" s="1"/>
@@ -5562,19 +5562,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="34" t="s">
         <v>148</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="31">
         <v>43257</v>
       </c>
       <c r="H9" s="1"/>
@@ -5588,21 +5588,21 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="31">
         <v>43257</v>
       </c>
       <c r="H10" s="1"/>
@@ -5616,19 +5616,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="34" t="s">
         <v>152</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="31">
         <v>43257</v>
       </c>
       <c r="H11" s="1"/>
@@ -5642,21 +5642,21 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="44" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="31">
         <v>43257</v>
       </c>
       <c r="H12" s="1"/>
@@ -5670,19 +5670,19 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="36" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="34" t="s">
         <v>156</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="31">
         <v>43257</v>
       </c>
       <c r="H13" s="1"/>
@@ -5696,21 +5696,21 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="44" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="31">
         <v>43257</v>
       </c>
       <c r="H14" s="1"/>
@@ -5724,19 +5724,19 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="36" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="34" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="31">
         <v>43257</v>
       </c>
       <c r="H15" s="1"/>
@@ -5750,21 +5750,21 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="31">
         <v>43257</v>
       </c>
       <c r="H16" s="1"/>
@@ -5778,19 +5778,19 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="48" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="34" t="s">
         <v>164</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="31">
         <v>43257</v>
       </c>
       <c r="H17" s="1"/>
@@ -5804,21 +5804,21 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="31">
         <v>43257</v>
       </c>
       <c r="H18" s="1"/>
@@ -5832,19 +5832,19 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="49" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="34" t="s">
         <v>168</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="31">
         <v>43257</v>
       </c>
       <c r="H19" s="1"/>
@@ -5858,21 +5858,21 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="31">
         <v>43257</v>
       </c>
       <c r="H20" s="1"/>
@@ -5886,19 +5886,19 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="34" t="s">
         <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="31">
         <v>43257</v>
       </c>
       <c r="H21" s="1"/>
@@ -5912,21 +5912,21 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="31">
         <v>43257</v>
       </c>
       <c r="H22" s="1"/>
@@ -5940,19 +5940,19 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="34" t="s">
         <v>176</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="31">
         <v>43257</v>
       </c>
       <c r="H23" s="1"/>
@@ -5966,19 +5966,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="34" t="s">
         <v>178</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="31">
         <v>43257</v>
       </c>
       <c r="H24" s="1"/>
@@ -5992,21 +5992,21 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="52" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="31">
         <v>43257</v>
       </c>
       <c r="H25" s="1"/>
@@ -6020,19 +6020,19 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="36" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="34" t="s">
         <v>182</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="31">
         <v>43257</v>
       </c>
       <c r="H26" s="1"/>
@@ -6046,19 +6046,19 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="53" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="45" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="34" t="s">
         <v>184</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="31">
         <v>43257</v>
       </c>
       <c r="H27" s="1"/>
@@ -6072,7 +6072,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6091,7 +6091,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6110,7 +6110,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6129,7 +6129,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6148,7 +6148,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6167,7 +6167,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6186,7 +6186,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6205,7 +6205,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6224,7 +6224,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6243,7 +6243,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6262,7 +6262,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6281,7 +6281,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6300,7 +6300,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6319,7 +6319,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6338,7 +6338,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6357,7 +6357,7 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6376,7 +6376,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6395,7 +6395,7 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6414,7 +6414,7 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6433,7 +6433,7 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6452,7 +6452,7 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6471,7 +6471,7 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6490,7 +6490,7 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6509,7 +6509,7 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6528,7 +6528,7 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6547,7 +6547,7 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6566,7 +6566,7 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6585,7 +6585,7 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6604,7 +6604,7 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6623,7 +6623,7 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6642,7 +6642,7 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6661,7 +6661,7 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6680,7 +6680,7 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6716,14 +6716,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A1:A27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -6734,6 +6726,14 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6762,7 +6762,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="85" t="s">
         <v>371</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -6793,23 +6793,23 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="39" t="s">
         <v>373</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="43">
         <v>43258</v>
       </c>
       <c r="H2" s="1"/>
@@ -6824,19 +6824,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="98" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="45" t="s">
         <v>375</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="43">
         <v>43258</v>
       </c>
       <c r="H3" s="1"/>
@@ -6851,19 +6851,19 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="45" t="s">
         <v>376</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="43">
         <v>43258</v>
       </c>
       <c r="H4" s="1"/>
@@ -6878,19 +6878,19 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="39" t="s">
         <v>377</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="43">
         <v>43258</v>
       </c>
       <c r="H5" s="1"/>
@@ -6905,23 +6905,23 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="43">
         <v>43258</v>
       </c>
       <c r="H6" s="1"/>
@@ -6935,19 +6935,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="98" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="34" t="s">
         <v>379</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="43">
         <v>43258</v>
       </c>
       <c r="H7" s="1"/>
@@ -6961,19 +6961,19 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="34" t="s">
         <v>369</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="43">
         <v>43258</v>
       </c>
       <c r="H8" s="1"/>
@@ -6987,23 +6987,23 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="41" t="s">
         <v>381</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="43">
         <v>43258</v>
       </c>
       <c r="H9" s="1"/>
@@ -7018,10 +7018,10 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="98" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="57" t="s">
         <v>374</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -7030,7 +7030,7 @@
       <c r="F10" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="43">
         <v>43258</v>
       </c>
       <c r="H10" s="1"/>
@@ -7045,19 +7045,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="10" t="s">
         <v>383</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="43">
         <v>43258</v>
       </c>
       <c r="H11" s="1"/>
@@ -7072,23 +7072,23 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="34" t="s">
         <v>385</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="43">
         <v>43258</v>
       </c>
       <c r="H12" s="1"/>
@@ -7103,19 +7103,19 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="98" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="34" t="s">
         <v>387</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="43">
         <v>43258</v>
       </c>
       <c r="H13" s="1"/>
@@ -7130,8 +7130,8 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="99" t="s">
         <v>309</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="F14" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="43">
         <v>43258</v>
       </c>
       <c r="H14" s="1"/>
@@ -7157,23 +7157,23 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="34" t="s">
         <v>385</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="43">
         <v>43258</v>
       </c>
       <c r="H15" s="1"/>
@@ -7188,19 +7188,19 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="98" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="34" t="s">
         <v>387</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="43">
         <v>43258</v>
       </c>
       <c r="H16" s="1"/>
@@ -7215,19 +7215,19 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="58" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="10" t="s">
         <v>390</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="43">
         <v>43258</v>
       </c>
       <c r="H17" s="1"/>
@@ -7242,10 +7242,10 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7261,10 +7261,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7280,10 +7280,10 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7299,10 +7299,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -7318,10 +7318,10 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7337,10 +7337,10 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -7356,10 +7356,10 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7375,10 +7375,10 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7394,10 +7394,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -7413,10 +7413,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -7432,10 +7432,10 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -7451,10 +7451,10 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7470,10 +7470,10 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -7489,10 +7489,10 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7508,10 +7508,10 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7527,10 +7527,10 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -7546,10 +7546,10 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -7565,10 +7565,10 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -7584,10 +7584,10 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -7603,10 +7603,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7622,10 +7622,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -7641,10 +7641,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7660,10 +7660,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7679,10 +7679,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7698,10 +7698,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7717,10 +7717,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -7736,9 +7736,9 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -7750,72 +7750,65 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A1:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C3"/>
@@ -7826,6 +7819,13 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7836,7 +7836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
@@ -7853,7 +7853,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>185</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -7884,21 +7884,21 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="39" t="s">
         <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="31">
         <v>43257</v>
       </c>
       <c r="H2" s="1"/>
@@ -7913,19 +7913,19 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="40" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="31">
         <v>43257</v>
       </c>
       <c r="H3" s="1"/>
@@ -7940,21 +7940,21 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="34" t="s">
         <v>189</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="31">
         <v>43257</v>
       </c>
       <c r="H4" s="1"/>
@@ -7968,21 +7968,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="34" t="s">
         <v>192</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="31">
         <v>43257</v>
       </c>
       <c r="H5" s="1"/>
@@ -7996,19 +7996,19 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="34" t="s">
         <v>194</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="31">
         <v>43257</v>
       </c>
       <c r="H6" s="1"/>
@@ -8022,21 +8022,21 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="41" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="31">
         <v>43257</v>
       </c>
       <c r="H7" s="1"/>
@@ -8050,21 +8050,21 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="34" t="s">
         <v>198</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="31">
         <v>43257</v>
       </c>
       <c r="H8" s="1"/>
@@ -8079,19 +8079,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="34" t="s">
         <v>194</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="31">
         <v>43257</v>
       </c>
       <c r="H9" s="1"/>
@@ -8106,7 +8106,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8125,7 +8125,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8144,7 +8144,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8163,7 +8163,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8182,7 +8182,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8201,7 +8201,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8220,7 +8220,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8239,7 +8239,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8258,7 +8258,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8277,7 +8277,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -8296,7 +8296,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8315,7 +8315,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8334,7 +8334,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8353,7 +8353,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8372,7 +8372,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8391,7 +8391,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8410,7 +8410,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8429,7 +8429,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="4"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8448,7 +8448,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8467,7 +8467,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8486,7 +8486,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8505,7 +8505,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8524,7 +8524,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8543,7 +8543,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8562,7 +8562,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8581,7 +8581,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8600,7 +8600,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8619,7 +8619,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8638,7 +8638,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8657,7 +8657,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8676,7 +8676,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8695,7 +8695,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8714,7 +8714,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8788,7 +8788,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -8819,7 +8819,7 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
@@ -8850,7 +8850,7 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="12"/>
       <c r="C3" s="16"/>
       <c r="D3" s="10" t="s">
@@ -8877,7 +8877,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
@@ -8904,7 +8904,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="21"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -8962,7 +8962,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -8989,7 +8989,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22"/>
       <c r="C8" s="13" t="s">
         <v>10</v>
@@ -9017,7 +9017,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="22"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9" t="s">
@@ -9043,7 +9043,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
@@ -9073,7 +9073,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
@@ -9099,7 +9099,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
         <v>11</v>
@@ -9125,7 +9125,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="12"/>
       <c r="C13" s="6" t="s">
         <v>10</v>
@@ -9154,7 +9154,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
@@ -9181,7 +9181,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -9239,7 +9239,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>31</v>
@@ -9266,7 +9266,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
@@ -9324,7 +9324,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9" t="s">
         <v>11</v>
@@ -9351,7 +9351,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
@@ -9409,7 +9409,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
@@ -9436,7 +9436,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -9463,7 +9463,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="21" t="s">
         <v>22</v>
       </c>
@@ -9494,7 +9494,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="21"/>
       <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
@@ -9521,7 +9521,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
         <v>31</v>
@@ -9548,7 +9548,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
         <v>24</v>
@@ -9575,7 +9575,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="6" t="s">
@@ -9633,7 +9633,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9" t="s">
         <v>24</v>
@@ -9660,7 +9660,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="12"/>
       <c r="C33" s="16"/>
       <c r="D33" s="10" t="s">
@@ -9718,7 +9718,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
@@ -9745,7 +9745,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="7"/>
       <c r="C35" s="9" t="s">
         <v>24</v>
@@ -9772,7 +9772,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="6" t="s">
         <v>52</v>
       </c>
@@ -9803,7 +9803,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
@@ -9830,7 +9830,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
@@ -9861,7 +9861,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="17" t="s">
@@ -9888,7 +9888,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
@@ -9915,7 +9915,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="21" t="s">
         <v>51</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="23"/>
       <c r="C42" s="14"/>
       <c r="D42" s="10" t="s">
@@ -10003,7 +10003,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10020,7 +10020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -10051,7 +10051,7 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -10109,7 +10109,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="21"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -10167,7 +10167,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -10194,7 +10194,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
         <v>10</v>
@@ -10222,7 +10222,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
@@ -10248,7 +10248,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
@@ -10278,7 +10278,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
         <v>24</v>
@@ -10307,7 +10307,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="4"/>
       <c r="C11" s="25"/>
       <c r="D11" s="5" t="s">
@@ -10334,7 +10334,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8" t="s">
         <v>70</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -10392,7 +10392,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="6" t="s">
         <v>71</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -10450,7 +10450,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
@@ -10477,7 +10477,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -10535,7 +10535,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="6" t="s">
         <v>74</v>
       </c>
@@ -10566,7 +10566,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -10593,7 +10593,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>24</v>
@@ -10620,7 +10620,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
@@ -10676,7 +10676,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5" t="s">
@@ -10734,7 +10734,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
@@ -10761,7 +10761,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
@@ -10792,7 +10792,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="25"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
@@ -10866,7 +10866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="85" t="s">
         <v>199</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -10897,23 +10897,23 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="88" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="43">
         <v>43257</v>
       </c>
       <c r="H2" s="4"/>
@@ -10926,17 +10926,17 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="43">
         <v>43257</v>
       </c>
       <c r="H3" s="4"/>
@@ -10949,21 +10949,21 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="45" t="s">
         <v>204</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="43">
         <v>43257</v>
       </c>
       <c r="H4" s="1"/>
@@ -10978,19 +10978,19 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="40" t="s">
         <v>205</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="43">
         <v>43257</v>
       </c>
       <c r="H5" s="1"/>
@@ -11005,23 +11005,23 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="34" t="s">
         <v>207</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="43">
         <v>43257</v>
       </c>
       <c r="H6" s="1"/>
@@ -11035,19 +11035,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="48" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="46" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="43">
         <v>43257</v>
       </c>
       <c r="H7" s="1"/>
@@ -11061,21 +11061,21 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="43">
         <v>43257</v>
       </c>
       <c r="H8" s="1"/>
@@ -11089,19 +11089,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="36" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="34" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="43">
         <v>43257</v>
       </c>
       <c r="H9" s="1"/>
@@ -11115,21 +11115,21 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="43">
         <v>43257</v>
       </c>
       <c r="H10" s="1"/>
@@ -11143,19 +11143,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="34" t="s">
         <v>216</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="43">
         <v>43257</v>
       </c>
       <c r="H11" s="1"/>
@@ -11169,21 +11169,21 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="6" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="34" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="43">
         <v>43257</v>
       </c>
       <c r="H12" s="1"/>
@@ -11197,21 +11197,21 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="27" t="s">
         <v>219</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="43">
         <v>43257</v>
       </c>
       <c r="H13" s="1"/>
@@ -11225,21 +11225,21 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="61" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="41" t="s">
         <v>221</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="43">
         <v>43257</v>
       </c>
       <c r="H14" s="1"/>
@@ -11253,21 +11253,21 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="34" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="43">
         <v>43257</v>
       </c>
       <c r="H15" s="1"/>
@@ -11281,19 +11281,19 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="48" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="34" t="s">
         <v>225</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="43">
         <v>43257</v>
       </c>
       <c r="H16" s="1"/>
@@ -11308,21 +11308,21 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="5" t="s">
         <v>227</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="43">
         <v>43257</v>
       </c>
       <c r="H17" s="1"/>
@@ -11337,12 +11337,12 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="78" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="44" t="s">
         <v>228</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -11351,7 +11351,7 @@
       <c r="F18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="43">
         <v>43257</v>
       </c>
       <c r="H18" s="1"/>
@@ -11366,10 +11366,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="70" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="44" t="s">
         <v>230</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -11378,7 +11378,7 @@
       <c r="F19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="43">
         <v>43257</v>
       </c>
       <c r="H19" s="1"/>
@@ -11393,14 +11393,14 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="44" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -11409,7 +11409,7 @@
       <c r="F20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="43">
         <v>43257</v>
       </c>
       <c r="H20" s="1"/>
@@ -11424,10 +11424,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="70" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="44" t="s">
         <v>236</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -11436,7 +11436,7 @@
       <c r="F21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="43">
         <v>43257</v>
       </c>
       <c r="H21" s="1"/>
@@ -11451,12 +11451,12 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="78" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="44" t="s">
         <v>234</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -11465,7 +11465,7 @@
       <c r="F22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="43">
         <v>43257</v>
       </c>
       <c r="H22" s="1"/>
@@ -11480,10 +11480,10 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="70" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="44" t="s">
         <v>236</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -11492,7 +11492,7 @@
       <c r="F23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="43">
         <v>43257</v>
       </c>
       <c r="H23" s="1"/>
@@ -11507,21 +11507,21 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="43">
         <v>43257</v>
       </c>
       <c r="H24" s="1"/>
@@ -11536,19 +11536,19 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="10" t="s">
         <v>242</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="43">
         <v>43257</v>
       </c>
       <c r="H25" s="1"/>
@@ -11563,21 +11563,21 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="80" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="47" t="s">
         <v>245</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="43">
         <v>43257</v>
       </c>
       <c r="H26" s="1"/>
@@ -11592,19 +11592,19 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="5" t="s">
         <v>247</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="43">
         <v>43257</v>
       </c>
       <c r="H27" s="1"/>
@@ -11619,14 +11619,14 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="44" t="s">
         <v>248</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -11635,7 +11635,7 @@
       <c r="F28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="43">
         <v>43257</v>
       </c>
       <c r="H28" s="1"/>
@@ -11650,12 +11650,12 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="44" t="s">
         <v>248</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -11664,7 +11664,7 @@
       <c r="F29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="43">
         <v>43257</v>
       </c>
       <c r="H29" s="1"/>
@@ -11679,14 +11679,14 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="44" t="s">
         <v>251</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -11695,7 +11695,7 @@
       <c r="F30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="43">
         <v>43257</v>
       </c>
       <c r="H30" s="1"/>
@@ -11710,10 +11710,10 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="70" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="44" t="s">
         <v>253</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -11722,7 +11722,7 @@
       <c r="F31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="43">
         <v>43257</v>
       </c>
       <c r="H31" s="1"/>
@@ -11737,12 +11737,12 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="78" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="44" t="s">
         <v>251</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -11751,7 +11751,7 @@
       <c r="F32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="43">
         <v>43257</v>
       </c>
       <c r="H32" s="1"/>
@@ -11766,10 +11766,10 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="70" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="44" t="s">
         <v>253</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -11778,7 +11778,7 @@
       <c r="F33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="43">
         <v>43257</v>
       </c>
       <c r="H33" s="1"/>
@@ -11793,14 +11793,14 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="44" t="s">
         <v>257</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -11809,7 +11809,7 @@
       <c r="F34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="43">
         <v>43257</v>
       </c>
       <c r="H34" s="1"/>
@@ -11824,10 +11824,10 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="70" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="44" t="s">
         <v>259</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -11836,7 +11836,7 @@
       <c r="F35" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="43">
         <v>43257</v>
       </c>
       <c r="H35" s="1"/>
@@ -11851,12 +11851,12 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="78" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="44" t="s">
         <v>223</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -11865,7 +11865,7 @@
       <c r="F36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="43">
         <v>43257</v>
       </c>
       <c r="H36" s="1"/>
@@ -11880,10 +11880,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="70" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -11892,7 +11892,7 @@
       <c r="F37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="43">
         <v>43257</v>
       </c>
       <c r="H37" s="1"/>
@@ -11907,10 +11907,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -11926,10 +11926,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -11945,10 +11945,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -11964,10 +11964,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -11983,10 +11983,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -12002,10 +12002,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -12021,10 +12021,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -12040,10 +12040,10 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -12059,10 +12059,10 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -12078,10 +12078,10 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -12097,10 +12097,10 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -12116,10 +12116,10 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -12135,10 +12135,10 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -12154,10 +12154,10 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -12173,10 +12173,10 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -12192,10 +12192,10 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -12211,10 +12211,10 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -12230,10 +12230,10 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -12249,10 +12249,10 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -12268,10 +12268,10 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -12287,10 +12287,10 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -12306,10 +12306,10 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -12325,10 +12325,10 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -12344,10 +12344,10 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -12363,10 +12363,10 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -12382,10 +12382,10 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -12401,9 +12401,9 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -12415,65 +12415,88 @@
       <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:A37"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
@@ -12484,29 +12507,6 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A1:A37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12535,7 +12535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -12566,7 +12566,7 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
@@ -12597,7 +12597,7 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -12624,7 +12624,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -12655,7 +12655,7 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="21"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -12682,7 +12682,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -12709,7 +12709,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
         <v>10</v>
@@ -12737,7 +12737,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
@@ -12763,7 +12763,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
@@ -12793,7 +12793,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
         <v>24</v>
@@ -12822,7 +12822,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="4"/>
       <c r="C11" s="25"/>
       <c r="D11" s="5" t="s">
@@ -12849,7 +12849,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="6" t="s">
         <v>91</v>
       </c>
@@ -12880,7 +12880,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -12907,7 +12907,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>102</v>
@@ -12934,7 +12934,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -12992,7 +12992,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -13019,7 +13019,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
@@ -13050,7 +13050,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
@@ -13077,7 +13077,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
         <v>102</v>
@@ -13104,7 +13104,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="6" t="s">
         <v>72</v>
       </c>
@@ -13135,7 +13135,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
@@ -13162,7 +13162,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="6" t="s">
         <v>95</v>
       </c>
@@ -13193,7 +13193,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
@@ -13220,7 +13220,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="5" t="s">
         <v>94</v>
       </c>
@@ -13249,7 +13249,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
@@ -13280,7 +13280,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5" t="s">
@@ -13307,7 +13307,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
@@ -13334,7 +13334,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
@@ -13365,7 +13365,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5" t="s">
@@ -13422,7 +13422,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A39"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13439,7 +13439,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="85" t="s">
         <v>263</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -13470,21 +13470,21 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="43">
         <v>43258</v>
       </c>
       <c r="H2" s="4"/>
@@ -13497,21 +13497,21 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="45" t="s">
         <v>267</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="43">
         <v>43258</v>
       </c>
       <c r="H3" s="1"/>
@@ -13526,19 +13526,19 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="40" t="s">
         <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="43">
         <v>43258</v>
       </c>
       <c r="H4" s="1"/>
@@ -13553,21 +13553,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="43">
         <v>43258</v>
       </c>
       <c r="H5" s="1"/>
@@ -13581,19 +13581,19 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="58" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="34" t="s">
         <v>270</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="43">
         <v>43258</v>
       </c>
       <c r="H6" s="1"/>
@@ -13607,21 +13607,21 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="43">
         <v>43258</v>
       </c>
       <c r="H7" s="1"/>
@@ -13636,19 +13636,19 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="10" t="s">
         <v>272</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="43">
         <v>43258</v>
       </c>
       <c r="H8" s="1"/>
@@ -13663,21 +13663,21 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="43">
         <v>43258</v>
       </c>
       <c r="H9" s="1"/>
@@ -13692,12 +13692,12 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="51" t="s">
         <v>274</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -13706,7 +13706,7 @@
       <c r="F10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="43">
         <v>43258</v>
       </c>
       <c r="H10" s="1"/>
@@ -13721,10 +13721,10 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="84" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="51" t="s">
         <v>276</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -13733,7 +13733,7 @@
       <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="43">
         <v>43258</v>
       </c>
       <c r="H11" s="1"/>
@@ -13748,21 +13748,21 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="61" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="43">
         <v>43258</v>
       </c>
       <c r="H12" s="1"/>
@@ -13777,12 +13777,12 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="51" t="s">
         <v>279</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -13791,7 +13791,7 @@
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="43">
         <v>43258</v>
       </c>
       <c r="H13" s="1"/>
@@ -13806,10 +13806,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="84" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="51" t="s">
         <v>281</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -13818,7 +13818,7 @@
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="43">
         <v>43258</v>
       </c>
       <c r="H14" s="1"/>
@@ -13833,21 +13833,21 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="41" t="s">
         <v>267</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="43">
         <v>43258</v>
       </c>
       <c r="H15" s="1"/>
@@ -13862,19 +13862,19 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="40" t="s">
         <v>268</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="43">
         <v>43258</v>
       </c>
       <c r="H16" s="1"/>
@@ -13889,21 +13889,21 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="5" t="s">
         <v>285</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="43">
         <v>43258</v>
       </c>
       <c r="H17" s="1"/>
@@ -13918,14 +13918,14 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="44" t="s">
         <v>108</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -13934,7 +13934,7 @@
       <c r="F18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="43">
         <v>43258</v>
       </c>
       <c r="H18" s="1"/>
@@ -13949,12 +13949,12 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="44" t="s">
         <v>289</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -13963,7 +13963,7 @@
       <c r="F19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="43">
         <v>43258</v>
       </c>
       <c r="H19" s="1"/>
@@ -13978,10 +13978,10 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="70" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -13990,7 +13990,7 @@
       <c r="F20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="43">
         <v>43258</v>
       </c>
       <c r="H20" s="1"/>
@@ -14005,10 +14005,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="70" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="44" t="s">
         <v>293</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -14017,7 +14017,7 @@
       <c r="F21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="43">
         <v>43258</v>
       </c>
       <c r="H21" s="1"/>
@@ -14032,19 +14032,19 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="76" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="10" t="s">
         <v>295</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="43">
         <v>43258</v>
       </c>
       <c r="H22" s="1"/>
@@ -14059,14 +14059,14 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="44" t="s">
         <v>297</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -14075,7 +14075,7 @@
       <c r="F23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="43">
         <v>43258</v>
       </c>
       <c r="H23" s="1"/>
@@ -14090,10 +14090,10 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="70" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="44" t="s">
         <v>299</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -14102,7 +14102,7 @@
       <c r="F24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="43">
         <v>43258</v>
       </c>
       <c r="H24" s="1"/>
@@ -14117,10 +14117,10 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="70" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="44" t="s">
         <v>301</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -14129,7 +14129,7 @@
       <c r="F25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="43">
         <v>43258</v>
       </c>
       <c r="H25" s="1"/>
@@ -14144,10 +14144,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="70" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="44" t="s">
         <v>303</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -14156,7 +14156,7 @@
       <c r="F26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="43">
         <v>43258</v>
       </c>
       <c r="H26" s="1"/>
@@ -14171,10 +14171,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="53" t="s">
         <v>305</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -14183,7 +14183,7 @@
       <c r="F27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="43">
         <v>43258</v>
       </c>
       <c r="H27" s="1"/>
@@ -14198,10 +14198,10 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="70" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="44" t="s">
         <v>307</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -14210,7 +14210,7 @@
       <c r="F28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="43">
         <v>43258</v>
       </c>
       <c r="H28" s="1"/>
@@ -14225,12 +14225,12 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="66" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="44" t="s">
         <v>310</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -14239,7 +14239,7 @@
       <c r="F29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="43">
         <v>43258</v>
       </c>
       <c r="H29" s="1"/>
@@ -14254,10 +14254,10 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="70" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="44" t="s">
         <v>312</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -14266,7 +14266,7 @@
       <c r="F30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="43">
         <v>43258</v>
       </c>
       <c r="H30" s="1"/>
@@ -14281,10 +14281,10 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="70" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="44" t="s">
         <v>314</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -14293,7 +14293,7 @@
       <c r="F31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="43">
         <v>43258</v>
       </c>
       <c r="H31" s="1"/>
@@ -14308,19 +14308,19 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="50" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="5" t="s">
         <v>317</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="43">
         <v>43258</v>
       </c>
       <c r="H32" s="1"/>
@@ -14335,19 +14335,19 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="50" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="10" t="s">
         <v>319</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="43">
         <v>43258</v>
       </c>
       <c r="H33" s="1"/>
@@ -14362,23 +14362,23 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="44" t="s">
         <v>321</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="43">
         <v>43258</v>
       </c>
       <c r="H34" s="1"/>
@@ -14393,12 +14393,12 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="86" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="53" t="s">
         <v>323</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -14407,7 +14407,7 @@
       <c r="F35" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="43">
         <v>43258</v>
       </c>
       <c r="H35" s="1"/>
@@ -14422,19 +14422,19 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="44" t="s">
         <v>326</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="43">
         <v>43258</v>
       </c>
       <c r="H36" s="1"/>
@@ -14449,19 +14449,19 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="76" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="77"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="5" t="s">
         <v>317</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="43">
         <v>43258</v>
       </c>
       <c r="H37" s="1"/>
@@ -14476,21 +14476,21 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="85"/>
+      <c r="B38" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="77"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="10" t="s">
         <v>328</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="43">
         <v>43258</v>
       </c>
       <c r="H38" s="1"/>
@@ -14505,19 +14505,19 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="76" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="10" t="s">
         <v>329</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="43">
         <v>43258</v>
       </c>
       <c r="H39" s="1"/>
@@ -14532,10 +14532,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -14551,10 +14551,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -14570,10 +14570,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -14589,10 +14589,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -14608,10 +14608,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -14627,10 +14627,10 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -14646,10 +14646,10 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -14665,10 +14665,10 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -14684,10 +14684,10 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -14703,10 +14703,10 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -14722,10 +14722,10 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -14741,10 +14741,10 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -14760,10 +14760,10 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -14779,10 +14779,10 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -14798,10 +14798,10 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -14817,10 +14817,10 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -14836,10 +14836,10 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -14855,10 +14855,10 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -14874,10 +14874,10 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -14893,10 +14893,10 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -14912,10 +14912,10 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -14931,10 +14931,10 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -14950,10 +14950,10 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -14969,10 +14969,10 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -14988,10 +14988,10 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -15007,10 +15007,10 @@
       <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -15026,9 +15026,9 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -15040,65 +15040,89 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:A39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -15110,30 +15134,6 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A1:A39"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15162,7 +15162,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="85" t="s">
         <v>330</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -15193,21 +15193,21 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="7" t="s">
         <v>331</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="43">
         <v>43258</v>
       </c>
       <c r="H2" s="4"/>
@@ -15220,21 +15220,21 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="45" t="s">
         <v>267</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="43">
         <v>43258</v>
       </c>
       <c r="H3" s="1"/>
@@ -15249,19 +15249,19 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="45" t="s">
         <v>333</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="43">
         <v>43258</v>
       </c>
       <c r="H4" s="1"/>
@@ -15276,19 +15276,19 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="40" t="s">
         <v>334</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="43">
         <v>43258</v>
       </c>
       <c r="H5" s="1"/>
@@ -15303,21 +15303,21 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="45" t="s">
         <v>267</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="43">
         <v>43258</v>
       </c>
       <c r="H6" s="1"/>
@@ -15331,19 +15331,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="34" t="s">
         <v>336</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="43">
         <v>43258</v>
       </c>
       <c r="H7" s="1"/>
@@ -15357,21 +15357,21 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="78" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="45" t="s">
         <v>267</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="43">
         <v>43258</v>
       </c>
       <c r="H8" s="1"/>
@@ -15386,19 +15386,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="58" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="72" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="45" t="s">
         <v>333</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="43">
         <v>43258</v>
       </c>
       <c r="H9" s="1"/>
@@ -15413,21 +15413,21 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="78" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="45" t="s">
         <v>267</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="43">
         <v>43258</v>
       </c>
       <c r="H10" s="1"/>
@@ -15442,19 +15442,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="58" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="45" t="s">
         <v>333</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="43">
         <v>43258</v>
       </c>
       <c r="H11" s="1"/>
@@ -15469,14 +15469,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="51" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -15485,7 +15485,7 @@
       <c r="F12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="43">
         <v>43258</v>
       </c>
       <c r="H12" s="1"/>
@@ -15500,10 +15500,10 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="84" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="51" t="s">
         <v>340</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -15512,7 +15512,7 @@
       <c r="F13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="43">
         <v>43258</v>
       </c>
       <c r="H13" s="1"/>
@@ -15527,10 +15527,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="84" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="51" t="s">
         <v>327</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -15539,7 +15539,7 @@
       <c r="F14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="43">
         <v>43258</v>
       </c>
       <c r="H14" s="1"/>
@@ -15554,19 +15554,19 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="10" t="s">
         <v>343</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="43">
         <v>43258</v>
       </c>
       <c r="H15" s="1"/>
@@ -15581,14 +15581,14 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="53" t="s">
         <v>344</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -15597,7 +15597,7 @@
       <c r="F16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="43">
         <v>43258</v>
       </c>
       <c r="H16" s="1"/>
@@ -15612,10 +15612,10 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="88" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="53" t="s">
         <v>346</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -15624,7 +15624,7 @@
       <c r="F17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="43">
         <v>43258</v>
       </c>
       <c r="H17" s="1"/>
@@ -15639,10 +15639,10 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="88" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="53" t="s">
         <v>348</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -15651,7 +15651,7 @@
       <c r="F18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="43">
         <v>43258</v>
       </c>
       <c r="H18" s="1"/>
@@ -15666,10 +15666,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="88" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="53" t="s">
         <v>350</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -15678,7 +15678,7 @@
       <c r="F19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="43">
         <v>43258</v>
       </c>
       <c r="H19" s="1"/>
@@ -15693,12 +15693,12 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="86" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="53" t="s">
         <v>352</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -15707,7 +15707,7 @@
       <c r="F20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="43">
         <v>43258</v>
       </c>
       <c r="H20" s="1"/>
@@ -15722,10 +15722,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="70" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="44" t="s">
         <v>354</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -15734,7 +15734,7 @@
       <c r="F21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="43">
         <v>43258</v>
       </c>
       <c r="H21" s="1"/>
@@ -15749,14 +15749,14 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="53" t="s">
         <v>344</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -15765,7 +15765,7 @@
       <c r="F22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="43">
         <v>43258</v>
       </c>
       <c r="H22" s="1"/>
@@ -15780,10 +15780,10 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="88" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="53" t="s">
         <v>350</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -15792,7 +15792,7 @@
       <c r="F23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="43">
         <v>43258</v>
       </c>
       <c r="H23" s="1"/>
@@ -15807,12 +15807,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="86" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="53" t="s">
         <v>352</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -15821,7 +15821,7 @@
       <c r="F24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="43">
         <v>43258</v>
       </c>
       <c r="H24" s="1"/>
@@ -15836,10 +15836,10 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="70" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="44" t="s">
         <v>354</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -15848,7 +15848,7 @@
       <c r="F25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="43">
         <v>43258</v>
       </c>
       <c r="H25" s="1"/>
@@ -15863,10 +15863,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -15882,10 +15882,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -15901,10 +15901,10 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -15920,10 +15920,10 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -15939,10 +15939,10 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -15958,10 +15958,10 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -15977,10 +15977,10 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -15996,10 +15996,10 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -16015,10 +16015,10 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -16034,10 +16034,10 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -16053,10 +16053,10 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -16072,10 +16072,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -16091,10 +16091,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -16110,10 +16110,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -16129,10 +16129,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -16148,10 +16148,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -16167,10 +16167,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -16186,10 +16186,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -16205,10 +16205,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -16224,10 +16224,10 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -16243,10 +16243,10 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -16262,10 +16262,10 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -16281,10 +16281,10 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -16300,10 +16300,10 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -16319,10 +16319,10 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -16338,10 +16338,10 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -16357,9 +16357,9 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -16371,76 +16371,65 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:D15"/>
@@ -16454,6 +16443,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16482,7 +16482,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>360</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -16513,21 +16513,21 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="44" t="s">
         <v>361</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="43">
         <v>43258</v>
       </c>
       <c r="H2" s="4"/>
@@ -16540,21 +16540,21 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="39" t="s">
         <v>362</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="43">
         <v>43258</v>
       </c>
       <c r="H3" s="1"/>
@@ -16569,23 +16569,23 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="78" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="34" t="s">
         <v>364</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="43">
         <v>43258</v>
       </c>
       <c r="H4" s="1"/>
@@ -16599,21 +16599,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="34" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="43">
         <v>43258</v>
       </c>
       <c r="H5" s="1"/>
@@ -16627,19 +16627,19 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="95" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="56" t="s">
         <v>368</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="43">
         <v>43258</v>
       </c>
       <c r="H6" s="1"/>
@@ -16653,19 +16653,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="96" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="56" t="s">
         <v>369</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="43">
         <v>43258</v>
       </c>
       <c r="H7" s="1"/>
@@ -16680,20 +16680,20 @@
     </row>
     <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="34" t="s">
         <v>370</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="43">
         <v>43258</v>
       </c>
       <c r="H8" s="1"/>
@@ -16708,10 +16708,10 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -16727,10 +16727,10 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -16746,10 +16746,10 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -16765,10 +16765,10 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -16784,10 +16784,10 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -16803,10 +16803,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -16822,10 +16822,10 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -16841,10 +16841,10 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -16860,10 +16860,10 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -16879,10 +16879,10 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -16898,10 +16898,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -16917,10 +16917,10 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -16936,10 +16936,10 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -16955,10 +16955,10 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -16974,10 +16974,10 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -16993,10 +16993,10 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -17012,10 +17012,10 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -17031,10 +17031,10 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -17050,10 +17050,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -17069,10 +17069,10 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -17088,10 +17088,10 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -17107,10 +17107,10 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -17126,10 +17126,10 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -17145,10 +17145,10 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -17164,10 +17164,10 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -17183,10 +17183,10 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -17202,9 +17202,9 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -17216,62 +17216,62 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
